--- a/Nr.29-AGR/pre-release 01/test.xlsx
+++ b/Nr.29-AGR/pre-release 01/test.xlsx
@@ -1,32 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\CTIF\Nr.29-AGR\pre-release 01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E854865A-198D-4D6D-9CED-A54D9EC48C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF098658"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +81,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +369,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1140</v>
+      </c>
+      <c r="B1">
+        <v>5696115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1104</v>
+      </c>
+      <c r="B2">
+        <v>2094174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1105</v>
+      </c>
+      <c r="B3">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1106</v>
+      </c>
+      <c r="B4">
+        <v>265818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1107</v>
+      </c>
+      <c r="B5">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1110</v>
+      </c>
+      <c r="B6">
+        <v>7451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1112</v>
+      </c>
+      <c r="B7">
+        <v>39052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1113</v>
+      </c>
+      <c r="B8">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1115</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1117</v>
+      </c>
+      <c r="B10">
+        <v>4212362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1120</v>
+      </c>
+      <c r="B11">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1121</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1123</v>
+      </c>
+      <c r="B13">
+        <v>26857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1124</v>
+      </c>
+      <c r="B14">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1125</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1126</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1127</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1133</v>
+      </c>
+      <c r="B18">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1135</v>
+      </c>
+      <c r="B19">
+        <v>16531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>SUM(B2:B19)</f>
+        <v>6673265</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>